--- a/medicine/Enfance/Sally_Morgan_(artiste)/Sally_Morgan_(artiste).xlsx
+++ b/medicine/Enfance/Sally_Morgan_(artiste)/Sally_Morgan_(artiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sally Jane Morgan, née le 18 janvier 1951 à Perth, est une écrivain, dramaturge et artiste australienne aborigène. Ses œuvres sont exposées dans de nombreuses collections privées et publiques en Australie et dans le reste du monde.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Morgan est née à Perth, en Australie-Occidentale et était l'aînée de cinq enfants. Enfant, elle prend conscience qu'elle diffère des autres enfants de son école à cause de sa couleur de peau et est souvent victime de moqueries de la part d'autres étudiants sur son milieu familial. Elle connait également une période difficile en raison des enseignants, mais elle aime son professeur d'anglais qui lui fait lire Winnie l'ourson. Sally a l'impression qu'elle est similaire à Winnie à bien des égards. Sa mère lui explique que ses ancêtres seraient originaires de l'Inde. Toutefois, lorsqu'elle a 15 ans, elle apprend qu'elle et sa sœur avaient en réalité des origines autochtones, du peuple Palku (ou Bailgu) dans la région de Pilbara.
 En 1972, elle épouse Paul Morgan, un camarade de classe et, dans les années qui suivent, elle finit ses études et a trois enfants.
@@ -544,7 +558,9 @@
           <t>Auteur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle raconte l'histoire de la découverte de son passé dans la biographie My Place, qui s'est vendue à plus d'un demi-million d'exemplaires en Australie. Il a également été publié en Europe, en Asie et aux États-Unis.
 Les arguments avancés dans cet ouvrage sont contestés par Judith Drake-Brockman, la fille de Howden Drake-Brockman. La version de Judith est détaillée dans son livre "Wongi Wongi." En 2004, elle demande que Sally Morgan subisse un test ADN pour prouver que Howden avait mis enceinte la grand-mère aborigène de Sally et avait eu une fille, Daisy, puis qu'il avait eu des relations incestueuses avec sa fille et était aussi le père de Gladys, la mère de Sally Morgan.
@@ -580,10 +596,12 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1987 - Human Rights Literature and Other Writing Award for My Place[1]
-1989 - Human Rights Literature and Other Writing Award for Wanamurraganya, the story of Jack McPhee[2]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1987 - Human Rights Literature and Other Writing Award for My Place
+1989 - Human Rights Literature and Other Writing Award for Wanamurraganya, the story of Jack McPhee</t>
         </is>
       </c>
     </row>
@@ -613,25 +631,132 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Récits autographiques
-My Place (1987)
+          <t>Récits autographiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>My Place (1987)
 Wanamurraganya, the story of Jack McPhee (1990)
 Mother and Daughter: The story of Daisy and Glady's Corunna (1994)
 Sally's Story (1995)
-Arthur Corunna's Story (1995)
-Littérature d'enfance et de jeunesse
-Little Piggies (1991), en collaboration avec Paul Morgan
+Arthur Corunna's Story (1995)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sally_Morgan_(artiste)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sally_Morgan_(artiste)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Little Piggies (1991), en collaboration avec Paul Morgan
 The Flying Emu and other Australian Stories (1992)
 Hurry up, Oscar! (1994)
 Pet Problem (1994)
 Dan's Grandpa (1996)
 In Your Dreams (1997)
 Just a Little Brown Dog (1997)
-Where is Galah (2015)
-Théâtre
-Cruel Wild Woman (1999)
-Catalogues d'exposition
-Echoes of the past : Sister Kate's home revisited (Centre for Indigenous History and the Arts 2002) en collaboration avec Tjalaminu Mia, photographies de Victor France
+Where is Galah (2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sally_Morgan_(artiste)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sally_Morgan_(artiste)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cruel Wild Woman (1999)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sally_Morgan_(artiste)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sally_Morgan_(artiste)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Catalogues d'exposition</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Echoes of the past : Sister Kate's home revisited (Centre for Indigenous History and the Arts 2002) en collaboration avec Tjalaminu Mia, photographies de Victor France
 Gnyung Waart Kooling Kulark (released as Going Home) (Centre for Indigenous History &amp; the Arts, School of Idigenous Studies, University of Western Australia, 2003), coédité avec Jill Milroy et Tjalaminu Mia.</t>
         </is>
       </c>
